--- a/data/trans_bre/P1806_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1806_2023-Dificultad-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.33523823854579</v>
+        <v>1.147103540236752</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.1888344420518739</v>
+        <v>0.170481305509632</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.774102959809192</v>
+        <v>5.695807110309054</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7.13719764402069</v>
+        <v>7.346198475999568</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>2.308626899805343</v>
+        <v>2.308626899805344</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>1.271603999716116</v>
+        <v>1.271603999716117</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.099956772412783</v>
+        <v>1.141184908007714</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.4062897351777995</v>
+        <v>0.3837490742006813</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.651961708088831</v>
+        <v>3.601970497342049</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.126343977062393</v>
+        <v>2.855364779798906</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>3.23638372699864</v>
+        <v>3.236383726998641</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4.213575349944989</v>
+        <v>4.21357534994499</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.289184070579778</v>
+        <v>2.121032255171138</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1.739982143520057</v>
+        <v>1.608070115970819</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.439899985547968</v>
+        <v>4.404130812459659</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>9.694519691005308</v>
+        <v>9.623953634887476</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>2.93235619757974</v>
+        <v>2.932356197579739</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.6001831840858253</v>
+        <v>0.6001831840858249</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8770786161055123</v>
+        <v>0.8386140653022083</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1163879381514757</v>
+        <v>0.1380918692519418</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.114838801884797</v>
+        <v>4.822824211417645</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.29809281091276</v>
+        <v>1.216903931592799</v>
       </c>
     </row>
     <row r="16">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.017001127712315</v>
+        <v>2.006888811913708</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.6967353521784009</v>
+        <v>0.6976910614886916</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.640128884880362</v>
+        <v>3.720652232384637</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1.812527426729145</v>
+        <v>1.869493803313686</v>
       </c>
     </row>
     <row r="19">
